--- a/data/trans_dic/DC_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,53; 19,34</t>
+          <t>11,57; 19,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,56; 27,87</t>
+          <t>20,14; 27,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,96; 22,65</t>
+          <t>17,17; 22,58</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,98; 24,72</t>
+          <t>16,18; 24,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,48; 42,3</t>
+          <t>34,51; 42,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,42; 32,22</t>
+          <t>26,9; 32,4</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,87; 32,44</t>
+          <t>22,54; 31,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,18; 46,82</t>
+          <t>37,85; 46,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,04; 38,4</t>
+          <t>32,25; 38,52</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,03; 25,02</t>
+          <t>15,08; 25,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,4; 45,78</t>
+          <t>33,66; 45,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,59; 35,96</t>
+          <t>26,44; 35,63</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,97; 24,19</t>
+          <t>13,94; 24,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,38; 39,2</t>
+          <t>23,86; 39,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,46; 31,28</t>
+          <t>22,43; 31,48</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,82; 38,68</t>
+          <t>29,19; 38,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>41,33; 51,23</t>
+          <t>41,3; 51,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>36,38; 43,61</t>
+          <t>36,73; 43,88</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,37; 36,41</t>
+          <t>28,62; 36,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>56,27; 76,75</t>
+          <t>56,33; 78,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,69; 62,1</t>
+          <t>44,66; 63,47</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,52; 21,24</t>
+          <t>15,04; 21,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>30,59; 36,54</t>
+          <t>30,41; 36,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,06; 28,33</t>
+          <t>23,35; 28,21</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>21,67; 24,97</t>
+          <t>21,48; 24,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>39,73; 47,77</t>
+          <t>39,73; 47,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>31,69; 36,64</t>
+          <t>31,64; 37,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,57; 19,98</t>
+          <t>11,53; 19,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,14; 27,6</t>
+          <t>20,56; 27,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,17; 22,58</t>
+          <t>16,96; 22,65</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,18; 24,73</t>
+          <t>15,98; 24,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,51; 42,15</t>
+          <t>34,48; 42,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,9; 32,4</t>
+          <t>26,42; 32,22</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,54; 31,73</t>
+          <t>22,87; 32,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,85; 46,81</t>
+          <t>38,18; 46,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,25; 38,52</t>
+          <t>32,04; 38,4</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,08; 25,03</t>
+          <t>15,03; 25,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,66; 45,6</t>
+          <t>33,4; 45,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,44; 35,63</t>
+          <t>26,59; 35,96</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,94; 24,14</t>
+          <t>14,97; 24,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,86; 39,85</t>
+          <t>23,38; 39,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,43; 31,48</t>
+          <t>22,46; 31,28</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,19; 38,89</t>
+          <t>28,82; 38,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>41,3; 51,45</t>
+          <t>41,33; 51,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>36,73; 43,88</t>
+          <t>36,38; 43,61</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,62; 36,81</t>
+          <t>28,37; 36,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>56,33; 78,4</t>
+          <t>56,27; 76,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,66; 63,47</t>
+          <t>44,69; 62,1</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,04; 21,43</t>
+          <t>14,52; 21,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>30,41; 36,64</t>
+          <t>30,59; 36,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,35; 28,21</t>
+          <t>23,06; 28,33</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>21,48; 24,77</t>
+          <t>21,67; 24,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>39,73; 47,97</t>
+          <t>39,73; 47,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>31,64; 37,0</t>
+          <t>31,69; 36,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>18,78%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,53; 19,34</t>
+          <t>10,89; 18,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,56; 27,87</t>
+          <t>19,94; 27,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,96; 22,65</t>
+          <t>15,86; 21,82</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>28,91%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,98; 24,72</t>
+          <t>15,63; 24,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,48; 42,3</t>
+          <t>34,46; 42,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,42; 32,22</t>
+          <t>25,89; 31,79</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42,32%</t>
+          <t>42,13%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>34,64%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,87; 32,44</t>
+          <t>22,17; 31,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,18; 46,82</t>
+          <t>37,82; 46,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,04; 38,4</t>
+          <t>31,47; 37,82</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38,36%</t>
+          <t>43,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>34,01%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,03; 25,02</t>
+          <t>14,68; 24,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,4; 45,78</t>
+          <t>31,68; 65,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,59; 35,96</t>
+          <t>26,54; 53,39</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>30,62%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>26,0%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,97; 24,19</t>
+          <t>15,1; 24,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,38; 39,2</t>
+          <t>16,72; 39,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,46; 31,28</t>
+          <t>18,29; 30,69</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>33,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>46,47%</t>
+          <t>46,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>40,02%</t>
+          <t>39,65%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,82; 38,68</t>
+          <t>28,38; 38,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>41,33; 51,23</t>
+          <t>41,33; 51,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>36,38; 43,61</t>
+          <t>36,09; 43,28</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>31,79%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>63,32%</t>
+          <t>67,58%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>49,8%</t>
+          <t>52,42%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,37; 36,41</t>
+          <t>27,67; 35,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>56,27; 76,75</t>
+          <t>56,19; 84,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,69; 62,1</t>
+          <t>43,89; 70,12</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>33,67%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>22,85%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,52; 21,24</t>
+          <t>6,91; 20,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>30,59; 36,54</t>
+          <t>30,96; 36,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,06; 28,33</t>
+          <t>13,71; 27,6</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>42,07%</t>
+          <t>44,01%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>33,25%</t>
+          <t>33,2%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>21,67; 24,97</t>
+          <t>16,86; 23,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>39,73; 47,77</t>
+          <t>39,51; 54,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>31,69; 36,64</t>
+          <t>29,69; 39,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DC_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,89; 18,79</t>
+          <t>10,99; 19,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,94; 27,37</t>
+          <t>19,81; 27,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,86; 21,82</t>
+          <t>16,03; 21,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,63; 24,57</t>
+          <t>15,7; 24,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,46; 42,28</t>
+          <t>34,62; 42,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,89; 31,79</t>
+          <t>25,98; 32,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,17; 31,69</t>
+          <t>21,8; 31,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,82; 46,61</t>
+          <t>37,66; 46,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,47; 37,82</t>
+          <t>31,51; 38,12</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,68; 24,79</t>
+          <t>15,04; 25,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,68; 65,65</t>
+          <t>31,47; 65,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,54; 53,39</t>
+          <t>25,95; 52,99</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,1; 24,17</t>
+          <t>15,32; 24,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,72; 39,3</t>
+          <t>15,9; 39,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,29; 30,69</t>
+          <t>17,05; 30,39</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,38; 38,24</t>
+          <t>28,28; 38,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>41,33; 51,13</t>
+          <t>41,97; 51,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>36,09; 43,28</t>
+          <t>36,01; 43,21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,67; 35,9</t>
+          <t>27,75; 36,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>56,19; 84,15</t>
+          <t>56,26; 82,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>43,89; 70,12</t>
+          <t>44,01; 70,99</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,91; 20,34</t>
+          <t>6,45; 20,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>30,96; 36,71</t>
+          <t>30,84; 37,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,71; 27,6</t>
+          <t>14,39; 27,53</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,86; 23,95</t>
+          <t>17,15; 23,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>39,51; 54,29</t>
+          <t>39,58; 54,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>29,69; 39,06</t>
+          <t>29,83; 40,09</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico (incluye Otro dolor crónico)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>44934</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>67943</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>112876</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>34242; 60154</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>57379; 79628</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>96328; 130959</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>101805</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>196903</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>298708</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>81369; 128176</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>178281; 217651</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>268447; 331478</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>83356</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>147084</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>230440</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>68890; 98825</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>131490; 162295</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>209623; 253578</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>60441</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>207689</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>268129</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>47021; 78174</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>149705; 312563</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>204590; 417719</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>34499</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>79242</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>113741</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>27384; 43342</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>41158; 101681</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>74596; 132965</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>89588</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>119239</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>208827</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>76246; 103128</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>107881; 133548</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>189658; 227592</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>198462</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>573965</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>772427</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>173256; 229065</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>477762; 703066</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>648520; 1046057</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>134512</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>241686</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>376198</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>59942; 191363</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>221345; 266597</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>236883; 453282</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2325</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>3222</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>747597</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1633750</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2381347</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>593275; 826212</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1469461; 2013722</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2139444; 2875621</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>